--- a/biology/Médecine/Hôpital_Fernand-Widal/Hôpital_Fernand-Widal.xlsx
+++ b/biology/Médecine/Hôpital_Fernand-Widal/Hôpital_Fernand-Widal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Fernand-Widal</t>
+          <t>Hôpital_Fernand-Widal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Fernand-Widal est un établissement de l'Assistance publique - hôpitaux de Paris (AP-HP) situé au 200, rue du Faubourg-Saint-Denis dans le 10e arrondissement de Paris. C'est le centre anti-poison de Paris.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Fernand-Widal</t>
+          <t>Hôpital_Fernand-Widal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’origine, vers le milieu du XVIe siècle, on trouve une maison de santé créée par Vincent de Paul qui était située dans l'actuelle rue du Faubourg-Saint-Martin. C’était un hôpital de quelque 40 lits où se dévouaient les Filles de la Charité. 
-Au début du XIXe siècle, cet établissement qui devient maison municipale de santé, est payant et il est donc plutôt accessible à la petite bourgeoisie. Il comprend 88 lits. Le docteur Antoine Dubois y crée un service de chirurgie. L’établissement est communément appelé la « Maison Dubois ». Sa capacité passera à 300 lits lorsqu’il sera transféré en 1858 au 200, rue du Faubourg-Saint-Denis à l’emplacement actuel de l’hôpital qui porte depuis 1959 le nom de Fernand Widal (1862-1929) qui y a installé un laboratoire très moderne. Le bâtiment a été conçu par l’architecte Henri Labrouste[1].
-Un projet de restructuration de l'hôpital Lariboisière est en cours, prévoyant le transfert sur le site de la plupart des activités de l'hôpital Fernand-Widal (psychiatrie, addictologie, médecine physique et réadaptation) ; les autres activités rejoindront l'hôpital Claude-Bernard (soins de suite gériatrique et de soins de longue durée)[2].
+Au début du XIXe siècle, cet établissement qui devient maison municipale de santé, est payant et il est donc plutôt accessible à la petite bourgeoisie. Il comprend 88 lits. Le docteur Antoine Dubois y crée un service de chirurgie. L’établissement est communément appelé la « Maison Dubois ». Sa capacité passera à 300 lits lorsqu’il sera transféré en 1858 au 200, rue du Faubourg-Saint-Denis à l’emplacement actuel de l’hôpital qui porte depuis 1959 le nom de Fernand Widal (1862-1929) qui y a installé un laboratoire très moderne. Le bâtiment a été conçu par l’architecte Henri Labrouste.
+Un projet de restructuration de l'hôpital Lariboisière est en cours, prévoyant le transfert sur le site de la plupart des activités de l'hôpital Fernand-Widal (psychiatrie, addictologie, médecine physique et réadaptation) ; les autres activités rejoindront l'hôpital Claude-Bernard (soins de suite gériatrique et de soins de longue durée).
 			Cour.
 			Porche d'entrée de la cour.
 			Monument aux morts.
